--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -198,13 +198,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>※基準時間：{$ALLOWANCE_TIME_MIN$}〜{$ALLOWANCE_TIME_MAX$}h/月</t>
-    <rPh sb="53" eb="54">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">{$SUBCONTRACTOR_NAME$}  </t>
     </r>
@@ -225,7 +218,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>月額基本料金：\{$ALLOWANCE_BASE$}円/月　　{$ALLOWANCE_BASE_MEMO$}</t>
+    <t>{$ALLOWANCE_BASE_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_TIME_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -956,9 +953,7 @@
   </sheetPr>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
   <cols>
@@ -989,7 +984,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5">
@@ -1091,7 +1086,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1161,7 +1156,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1174,7 +1169,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>

--- a/media/eb_order/eb_order_hide_formula.xlsx
+++ b/media/eb_order/eb_order_hide_formula.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>注　文　書</t>
   </si>
@@ -179,10 +179,6 @@
   </si>
   <si>
     <t>⑤ 著しく勤怠不良の場合は、協議の上で減額する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -223,6 +219,14 @@
   </si>
   <si>
     <t>{$ALLOWANCE_TIME_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>⑦ 注文請書は毎月の15日までに弊社に必着。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -951,7 +955,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -984,7 +988,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.5">
@@ -1086,7 +1090,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1152,11 +1156,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1169,7 +1173,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1182,7 +1186,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1275,7 +1279,7 @@
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="45" t="s">
@@ -1315,41 +1319,43 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="48" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="49"/>
@@ -1395,10 +1401,21 @@
       <c r="H43" s="49"/>
       <c r="I43" s="49"/>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A38:I43"/>
+    <mergeCell ref="A39:I44"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
